--- a/midterm.xlsx
+++ b/midterm.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Students's Grades" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Students's Grades" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -439,14 +439,12 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>9884</t>
-        </is>
+      <c r="A2" t="n">
+        <v>39627</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Maria Martinez</t>
+          <t>Sofia Kolesnikova</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -454,14 +452,12 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>ID: IUIDB</t>
-        </is>
+      <c r="A3" t="n">
+        <v>26530</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Alex Lee</t>
+          <t>Dmitry Mikhailov</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -469,14 +465,12 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>ID: 10354</t>
-        </is>
+      <c r="A4" t="n">
+        <v>50817</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Anna Lee</t>
+          <t>Stanislav Konstantinov</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -484,14 +478,12 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>ID: 14233</t>
-        </is>
+      <c r="A5" t="n">
+        <v>94125</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Lena Smith</t>
+          <t>Evgeniya Lebedeva</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -499,14 +491,12 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>ID: 11541</t>
-        </is>
+      <c r="A6" t="n">
+        <v>96483</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>John Williams</t>
+          <t>Tatyana Alexandrova</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -514,14 +504,12 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>ID: 1959</t>
-        </is>
+      <c r="A7" t="n">
+        <v>90138</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Anna Unichko</t>
+          <t>Leonid Zakharov</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -529,10 +517,12 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr"/>
+      <c r="A8" t="n">
+        <v>63950</v>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Daniel Williams</t>
+          <t>Anna Popova</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -540,14 +530,12 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>13987</t>
-        </is>
+      <c r="A9" t="n">
+        <v>94797</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Maria Johnson</t>
+          <t>Vasily Baranov</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -555,14 +543,12 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>U537</t>
-        </is>
+      <c r="A10" t="n">
+        <v>77634</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Eva Johnson</t>
+          <t>Marina Ivanova</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -570,14 +556,12 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>19118</t>
-        </is>
+      <c r="A11" t="n">
+        <v>10113</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Alex Walker</t>
+          <t>Nikita Kuznetsov</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -585,14 +569,12 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>ID: 11579</t>
-        </is>
+      <c r="A12" t="n">
+        <v>41908</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>James Martinez</t>
+          <t>Ivan Vasilyev</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -600,14 +582,12 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>ID:M318</t>
-        </is>
+      <c r="A13" t="n">
+        <v>30310</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Robert Williams</t>
+          <t>Anton Pavlov</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -615,10 +595,12 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr"/>
+      <c r="A14" t="n">
+        <v>72419</v>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Emma Smith</t>
+          <t>Elena Dmitrieva</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -626,14 +608,12 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>14008</t>
-        </is>
+      <c r="A15" t="n">
+        <v>11647</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Emma Jones</t>
+          <t>Egor Trofimov</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -641,14 +621,12 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>11854</t>
-        </is>
+      <c r="A16" t="n">
+        <v>96040</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Lena Johnson</t>
+          <t>Darya Ushakova</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -656,14 +634,12 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>ID: 12282</t>
-        </is>
+      <c r="A17" t="n">
+        <v>48010</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Lena Milka</t>
+          <t>Ksenia Ignatyeva</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -671,10 +647,12 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr"/>
+      <c r="A18" t="n">
+        <v>44066</v>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Robert Martinez</t>
+          <t>Boris Ermakov</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -682,14 +660,12 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>14106</t>
-        </is>
+      <c r="A19" t="n">
+        <v>75601</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Anna Walker</t>
+          <t>Vera Gorbunova</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -697,14 +673,12 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>ID: CCOONSR</t>
-        </is>
+      <c r="A20" t="n">
+        <v>27981</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Eva Jones</t>
+          <t>Alina Zhukova</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -712,14 +686,12 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>13999</t>
-        </is>
+      <c r="A21" t="n">
+        <v>16560</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>David Rodriguez</t>
+          <t>Andrey Titov</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -727,14 +699,12 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Pasorsfo</t>
-        </is>
+      <c r="A22" t="n">
+        <v>34015</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Alina Jones</t>
+          <t>Pavel Gerasimov</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -742,14 +712,12 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>5600 C</t>
-        </is>
+      <c r="A23" t="n">
+        <v>35884</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Anna Rodriguez</t>
+          <t>Grigory Orlov</t>
         </is>
       </c>
       <c r="C23" t="n">
